--- a/part_1.xlsx
+++ b/part_1.xlsx
@@ -97,20 +97,47 @@
     <t>Вставьте на лист два графика (в виде изображений), отражающих распределение переменных `points` и `price`</t>
   </si>
   <si>
+    <t>Какой тип графика вы выбрали для `points` и почему?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Menlo"/>
+        <b val="false"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Для анализа были выбраны гистограммы для цены и рейтинга, поскольку они позволяют наглядно оценить распределение количественных переменных, выявить асимметрию и наличие выбросов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Какой тип графика вы выбрали для `price` и почему?</t>
+  </si>
+  <si>
+    <t>Вставьте на лист график, отражающий связь переменных `points` и `price` наиболее наглядным образом.  </t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Какой тип графика вы выбрали для `points` и почему?</t>
-  </si>
-  <si>
-    <t>Какой тип графика вы выбрали для `price` и почему?</t>
-  </si>
-  <si>
-    <t>Вставьте на лист график, отражающий связь переменных `points` и `price` наиболее наглядным образом.  </t>
-  </si>
-  <si>
     <t>Опишите тип графика (и дополнительные смысловые элементы), который вы выбрали. Почему именно они?</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Menlo"/>
+        <b val="false"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>Для изучения зависимости между ценой и рейтингом была использована диаграмма рассеяния, так как она наиболее подходит для анализа связи между двумя количественными признаками и позволяет оценить характер зависимости и степень разброса данных.</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si/>
 </sst>
 </file>
 
@@ -119,7 +146,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -154,6 +181,18 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Menlo"/>
+      <b val="false"/>
+      <color rgb="000000" tint="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Menlo"/>
+      <b val="false"/>
+      <color rgb="000000" tint="0"/>
+      <sz val="9"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -171,19 +210,40 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right"/>
@@ -193,9 +253,19 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="right" indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="right" indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment indent="1" wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -434,7 +504,7 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>149908</v>
       </c>
     </row>
@@ -526,7 +596,7 @@
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -534,7 +604,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -542,7 +612,7 @@
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -550,7 +620,7 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -558,7 +628,7 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -566,7 +636,7 @@
       <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -574,25 +644,25 @@
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="n"/>
+      <c r="B9" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-    </row>
-    <row customHeight="true" ht="62.5" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="4" t="n"/>
+    </row>
+    <row customHeight="true" ht="98" outlineLevel="0" r="11">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -600,7 +670,7 @@
       <c r="B12" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="9" t="n"/>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="n"/>
@@ -615,7 +685,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
@@ -623,8 +693,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="14.5" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" width="110.332597967942"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" width="43.9999993233353"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" width="82.1286058828893"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="88.8691826076189"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -639,34 +709,47 @@
       <c r="A2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n"/>
+    </row>
+    <row customHeight="true" ht="39" outlineLevel="0" r="3">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row customHeight="true" ht="56.5" outlineLevel="0" r="4">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="10" t="s"/>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>22</v>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
 </file>
--- a/part_1.xlsx
+++ b/part_1.xlsx
@@ -137,7 +137,6 @@
 </t>
     </r>
   </si>
-  <si/>
 </sst>
 </file>
 
@@ -264,7 +263,7 @@
       <alignment horizontal="right" indent="1" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment indent="1" wrapText="true"/>
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,6 +272,68 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="101600" y="2641600"/>
+    <xdr:ext cx="5829300" cy="4495800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5956300" y="2578100"/>
+    <xdr:ext cx="6426200" cy="4699000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="2" name="Picture 2"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2070100" y="7315200"/>
+    <xdr:ext cx="5715000" cy="4445000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="3" name="Picture 3"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,14 +803,13 @@
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="0" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>